--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ENERPAMPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2513DADA-433A-4F7E-8C01-B2D04017D33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AC59E5-FE22-49FA-9D15-A6D3CE46098A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,8 +670,8 @@
   </sheetPr>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
